--- a/Code/Results/Cases/Case_4_161/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_161/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.445554264642851</v>
+        <v>1.071367240641678</v>
       </c>
       <c r="C2">
-        <v>0.5646778152927538</v>
+        <v>0.1885825876654792</v>
       </c>
       <c r="D2">
-        <v>0.3736689208274839</v>
+        <v>0.5889528017668937</v>
       </c>
       <c r="E2">
-        <v>0.1167860040394793</v>
+        <v>0.2177370710720936</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.000806432756447328</v>
+        <v>0.002488314989996804</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.04106454278348082</v>
+        <v>0.09830449300914879</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7539526619026944</v>
+        <v>0.495408168708245</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.860318500770688</v>
+        <v>4.783484108390468</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.121342320585939</v>
+        <v>0.9781698075374834</v>
       </c>
       <c r="C3">
-        <v>0.491827729505502</v>
+        <v>0.166363432426607</v>
       </c>
       <c r="D3">
-        <v>0.345449078378067</v>
+        <v>0.5856100738657943</v>
       </c>
       <c r="E3">
-        <v>0.1104167396164755</v>
+        <v>0.217636365364541</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008123245957393452</v>
+        <v>0.002492099847007265</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04068186883836944</v>
+        <v>0.09890801516050729</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6575536607098726</v>
+        <v>0.4701469265253024</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.732822819070236</v>
+        <v>4.797194863521185</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.923364351753122</v>
+        <v>0.9211656525764624</v>
       </c>
       <c r="C4">
-        <v>0.4472302030230537</v>
+        <v>0.1527054039895575</v>
       </c>
       <c r="D4">
-        <v>0.3286987739605536</v>
+        <v>0.5838469299353193</v>
       </c>
       <c r="E4">
-        <v>0.1067070478568439</v>
+        <v>0.217679123566743</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008160508261909371</v>
+        <v>0.002494547020349213</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04052647103113216</v>
+        <v>0.09932231810599035</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5989033825566921</v>
+        <v>0.4548234435517671</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.662358787177965</v>
+        <v>4.808889663886561</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.8429094430318</v>
+        <v>0.8979920336477107</v>
       </c>
       <c r="C5">
-        <v>0.4290795834360495</v>
+        <v>0.1471360221240445</v>
       </c>
       <c r="D5">
-        <v>0.3220077156984047</v>
+        <v>0.5832011884097739</v>
       </c>
       <c r="E5">
-        <v>0.1052427282002881</v>
+        <v>0.2177228433125116</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008175974026065411</v>
+        <v>0.002495575355536721</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.04048217171453672</v>
+        <v>0.09950214340054231</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5751203329540147</v>
+        <v>0.448626223810983</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.635482643094463</v>
+        <v>4.814477426378261</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.829561990187017</v>
+        <v>0.8941474819982034</v>
       </c>
       <c r="C6">
-        <v>0.4260668084930899</v>
+        <v>0.1462110188490158</v>
       </c>
       <c r="D6">
-        <v>0.3209045278030374</v>
+        <v>0.5830983578977822</v>
       </c>
       <c r="E6">
-        <v>0.105002354283144</v>
+        <v>0.2177316909855094</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008178559304143188</v>
+        <v>0.00249574799076503</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.04047593753717393</v>
+        <v>0.09953266709584518</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5711777608291086</v>
+        <v>0.4476000382981766</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.631127346875445</v>
+        <v>4.815454865675946</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.922278471998766</v>
+        <v>0.9208528970079612</v>
       </c>
       <c r="C7">
-        <v>0.4469853361852927</v>
+        <v>0.1526303077058344</v>
       </c>
       <c r="D7">
-        <v>0.328608003113203</v>
+        <v>0.5838379266520803</v>
       </c>
       <c r="E7">
-        <v>0.106687111581774</v>
+        <v>0.2176796067237099</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008160715690553672</v>
+        <v>0.002494560762687218</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.04052579780659826</v>
+        <v>0.09932469878670247</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5985821836879026</v>
+        <v>0.4547396742071186</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.661989044639199</v>
+        <v>4.808961696458226</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.33350777699718</v>
+        <v>1.039187697688931</v>
       </c>
       <c r="C8">
-        <v>0.5395251912767947</v>
+        <v>0.1809247515872698</v>
       </c>
       <c r="D8">
-        <v>0.3638126389425906</v>
+        <v>0.5877401846873909</v>
       </c>
       <c r="E8">
-        <v>0.1145461887691823</v>
+        <v>0.2176806359680938</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.000808442212925208</v>
+        <v>0.002489594486411195</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.04091547195735501</v>
+        <v>0.09850350669833219</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7205910454408624</v>
+        <v>0.4866593832413955</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.814655740339958</v>
+        <v>4.787530462396319</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.151117339154382</v>
+        <v>1.272958446809639</v>
       </c>
       <c r="C9">
-        <v>0.7225562586665717</v>
+        <v>0.2362803560961879</v>
       </c>
       <c r="D9">
-        <v>0.4379256960272642</v>
+        <v>0.597688945145876</v>
       </c>
       <c r="E9">
-        <v>0.1317071639790264</v>
+        <v>0.2185130602574787</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007943042410155365</v>
+        <v>0.002480829105640048</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.04235879035999801</v>
+        <v>0.09724044319465364</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.9650257695811604</v>
+        <v>0.5507330078283132</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.182293829450174</v>
+        <v>4.771587689327788</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.76255727140574</v>
+        <v>1.445742302250551</v>
       </c>
       <c r="C10">
-        <v>0.8587680424345479</v>
+        <v>0.2768650382289195</v>
       </c>
       <c r="D10">
-        <v>0.4962329799429881</v>
+        <v>0.6064013327122098</v>
       </c>
       <c r="E10">
-        <v>0.1456159202749667</v>
+        <v>0.2196320120476081</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007843605051822682</v>
+        <v>0.002474976313349098</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.04390587598411244</v>
+        <v>0.0965245889488564</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.149146575363034</v>
+        <v>0.5987089246288946</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.503444568808504</v>
+        <v>4.775904517333288</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.044023932656614</v>
+        <v>1.524568878466027</v>
       </c>
       <c r="C11">
-        <v>0.9213089250658868</v>
+        <v>0.2953086650025796</v>
       </c>
       <c r="D11">
-        <v>0.5237841033037398</v>
+        <v>0.610670274831989</v>
       </c>
       <c r="E11">
-        <v>0.1522837021055281</v>
+        <v>0.2202515015224087</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007799188618135</v>
+        <v>0.002472439869744557</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.04473337481908501</v>
+        <v>0.09624508105306262</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.234235123486329</v>
+        <v>0.6207303526277457</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.662964110760811</v>
+        <v>4.781377375217346</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.151174814195372</v>
+        <v>1.554450490150714</v>
       </c>
       <c r="C12">
-        <v>0.9450927191324183</v>
+        <v>0.3022899565873445</v>
       </c>
       <c r="D12">
-        <v>0.5343820390122573</v>
+        <v>0.6123307957948327</v>
       </c>
       <c r="E12">
-        <v>0.154862960058388</v>
+        <v>0.2205019880550303</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.000778247391493493</v>
+        <v>0.002471497403758135</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.04506619631402486</v>
+        <v>0.09614588080188824</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.266678877551755</v>
+        <v>0.6290975253055393</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.725517855528324</v>
+        <v>4.783956587479167</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.128071299957242</v>
+        <v>1.548013553945282</v>
       </c>
       <c r="C13">
-        <v>0.9399656600787409</v>
+        <v>0.3007865437387522</v>
       </c>
       <c r="D13">
-        <v>0.5320919554574459</v>
+        <v>0.6119712172665288</v>
       </c>
       <c r="E13">
-        <v>0.1543049643991594</v>
+        <v>0.2204473339530253</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007786069280022917</v>
+        <v>0.002471699580180404</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.04499362299779364</v>
+        <v>0.09616694974567253</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.259681105527179</v>
+        <v>0.6272942564898187</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.711946608467883</v>
+        <v>4.783378535320196</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.052827428117439</v>
+        <v>1.527026626157181</v>
       </c>
       <c r="C14">
-        <v>0.9232635003819212</v>
+        <v>0.2958830797426515</v>
       </c>
       <c r="D14">
-        <v>0.5246525914949132</v>
+        <v>0.6108060056679676</v>
       </c>
       <c r="E14">
-        <v>0.1524947782187738</v>
+        <v>0.2202717904755787</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.000779781146639659</v>
+        <v>0.002472361971675305</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.04476035591819283</v>
+        <v>0.09623678659573187</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.236899640250513</v>
+        <v>0.6214181621121355</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.668066094347239</v>
+        <v>4.781579399983116</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.00681480791792</v>
+        <v>1.514175630075897</v>
       </c>
       <c r="C15">
-        <v>0.9130466507833432</v>
+        <v>0.2928791804480966</v>
       </c>
       <c r="D15">
-        <v>0.5201177858844517</v>
+        <v>0.6100980059771928</v>
       </c>
       <c r="E15">
-        <v>0.151393227572747</v>
+        <v>0.2201663359944561</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007805017146681235</v>
+        <v>0.002472770050703137</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.0446200607205256</v>
+        <v>0.09628042910250301</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.22297529868186</v>
+        <v>0.6178225433747855</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.64147443436292</v>
+        <v>4.780543436750065</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.744236902235286</v>
+        <v>1.440595281546621</v>
       </c>
       <c r="C16">
-        <v>0.8546939549856916</v>
+        <v>0.275659309758737</v>
       </c>
       <c r="D16">
-        <v>0.4944545492819259</v>
+        <v>0.6061284987209774</v>
       </c>
       <c r="E16">
-        <v>0.1451874630959438</v>
+        <v>0.2195937510882331</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007846523164851005</v>
+        <v>0.002475144603982027</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.04385442591117084</v>
+        <v>0.09654378460304258</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.143615216072064</v>
+        <v>0.5972737196321987</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.493307778037916</v>
+        <v>4.77561764945699</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.58406411561225</v>
+        <v>1.395513480550051</v>
       </c>
       <c r="C17">
-        <v>0.8190565135822965</v>
+        <v>0.2650905519347475</v>
       </c>
       <c r="D17">
-        <v>0.4789857425843991</v>
+        <v>0.6037716251868517</v>
       </c>
       <c r="E17">
-        <v>0.1414712994206653</v>
+        <v>0.2192707929466629</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007872186558629524</v>
+        <v>0.002476633527306169</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.04341756114249051</v>
+        <v>0.09671716785308604</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.095292498451563</v>
+        <v>0.5847179907484161</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.405998477785573</v>
+        <v>4.773496136606525</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.492243637515969</v>
+        <v>1.369604974067556</v>
       </c>
       <c r="C18">
-        <v>0.7986119771195206</v>
+        <v>0.2590099502237706</v>
       </c>
       <c r="D18">
-        <v>0.4701840165276394</v>
+        <v>0.6024447805022817</v>
       </c>
       <c r="E18">
-        <v>0.1393655720059286</v>
+        <v>0.2190954333456041</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007887025303351336</v>
+        <v>0.00247750178340499</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.04317782361993139</v>
+        <v>0.09682123548550692</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.067621793707715</v>
+        <v>0.577514815448211</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.357030064225256</v>
+        <v>4.772606063448706</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.461204926591506</v>
+        <v>1.360836492529188</v>
       </c>
       <c r="C19">
-        <v>0.7916984266799716</v>
+        <v>0.2569508730049961</v>
       </c>
       <c r="D19">
-        <v>0.4672198106646874</v>
+        <v>0.6020004739391425</v>
       </c>
       <c r="E19">
-        <v>0.138657901373584</v>
+        <v>0.2190378449546593</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007892063186747467</v>
+        <v>0.002477797801308732</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.04309858554117341</v>
+        <v>0.09685721650579637</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.058273236631173</v>
+        <v>0.575079135377905</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.340658571252476</v>
+        <v>4.772361340626333</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.601082431725615</v>
+        <v>1.40031031147339</v>
       </c>
       <c r="C20">
-        <v>0.8228445527841757</v>
+        <v>0.2662157952518101</v>
       </c>
       <c r="D20">
-        <v>0.4806224175905527</v>
+        <v>0.6040195410525655</v>
       </c>
       <c r="E20">
-        <v>0.1418635723960513</v>
+        <v>0.2193040962062796</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007869446679192565</v>
+        <v>0.002476473801404307</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.04346286066375171</v>
+        <v>0.09669826144813598</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.100423563099547</v>
+        <v>0.5860526512415305</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.41516187516001</v>
+        <v>4.773687788831268</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.074912280286412</v>
+        <v>1.533190141968475</v>
       </c>
       <c r="C21">
-        <v>0.928166438724304</v>
+        <v>0.2973234268498857</v>
       </c>
       <c r="D21">
-        <v>0.5268330908726284</v>
+        <v>0.6111470632253315</v>
       </c>
       <c r="E21">
-        <v>0.1530249545472095</v>
+        <v>0.2203229202376669</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007794359764681007</v>
+        <v>0.002472166922614139</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.04482832962121464</v>
+        <v>0.0962160934513534</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.243584804266078</v>
+        <v>0.62314335131326</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.680894757167493</v>
+        <v>4.782094079129934</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.38793161628746</v>
+        <v>1.620219173278542</v>
       </c>
       <c r="C22">
-        <v>0.9975983148157184</v>
+        <v>0.3176369944344799</v>
       </c>
       <c r="D22">
-        <v>0.5580050323395653</v>
+        <v>0.6160615822973625</v>
       </c>
       <c r="E22">
-        <v>0.1606390191249396</v>
+        <v>0.2210814605815159</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007745890343742113</v>
+        <v>0.002469457180993329</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.04583510825708714</v>
+        <v>0.0959396953470133</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.338463065647844</v>
+        <v>0.6475481833985697</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.867198685450091</v>
+        <v>4.790542863828421</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.220529776635829</v>
+        <v>1.573753545803356</v>
       </c>
       <c r="C23">
-        <v>0.9604800919180434</v>
+        <v>0.3067969014800269</v>
       </c>
       <c r="D23">
-        <v>0.5412730050683763</v>
+        <v>0.6134151566033381</v>
       </c>
       <c r="E23">
-        <v>0.1565441136230739</v>
+        <v>0.2206681285324947</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007771708655995519</v>
+        <v>0.002470893838834125</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.04528670781263244</v>
+        <v>0.0960836677962682</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.287693365954837</v>
+        <v>0.6345079264209659</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.766531519529167</v>
+        <v>4.785762511782877</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.593387632181305</v>
+        <v>1.398141634182934</v>
       </c>
       <c r="C24">
-        <v>0.821131844839897</v>
+        <v>0.2657070866954996</v>
       </c>
       <c r="D24">
-        <v>0.4798821931110808</v>
+        <v>0.6039073705979376</v>
       </c>
       <c r="E24">
-        <v>0.1416861304178703</v>
+        <v>0.2192890076788103</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007870685114540449</v>
+        <v>0.002476545975222285</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.04344234529812496</v>
+        <v>0.09670679536819193</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.098103466378028</v>
+        <v>0.5854492036240089</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.411015297883637</v>
+        <v>4.773600116255153</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.928350957338012</v>
+        <v>1.209535015349729</v>
       </c>
       <c r="C25">
-        <v>0.6727976371295483</v>
+        <v>0.2213197265586189</v>
       </c>
       <c r="D25">
-        <v>0.4172580441843508</v>
+        <v>0.5947513809599485</v>
       </c>
       <c r="E25">
-        <v>0.1268544555175737</v>
+        <v>0.2181988513590731</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007980465597234196</v>
+        <v>0.002483096811976609</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.04188851897111334</v>
+        <v>0.09754491457637826</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.898210697973262</v>
+        <v>0.533241134061889</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.074606793240775</v>
+        <v>4.773094908849657</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_161/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_161/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.071367240641678</v>
+        <v>2.445554264643079</v>
       </c>
       <c r="C2">
-        <v>0.1885825876654792</v>
+        <v>0.5646778152927254</v>
       </c>
       <c r="D2">
-        <v>0.5889528017668937</v>
+        <v>0.3736689208276687</v>
       </c>
       <c r="E2">
-        <v>0.2177370710720936</v>
+        <v>0.1167860040394793</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002488314989996804</v>
+        <v>0.0008064327564469416</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.09830449300914879</v>
+        <v>0.04106454278348082</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.495408168708245</v>
+        <v>0.7539526619027157</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>4.783484108390468</v>
+        <v>2.860318500770802</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9781698075374834</v>
+        <v>2.121342320585825</v>
       </c>
       <c r="C3">
-        <v>0.166363432426607</v>
+        <v>0.4918277295054452</v>
       </c>
       <c r="D3">
-        <v>0.5856100738657943</v>
+        <v>0.3454490783779818</v>
       </c>
       <c r="E3">
-        <v>0.217636365364541</v>
+        <v>0.1104167396164719</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002492099847007265</v>
+        <v>0.0008123245957658681</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.09890801516050729</v>
+        <v>0.04068186883848313</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4701469265253024</v>
+        <v>0.6575536607098798</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>4.797194863521185</v>
+        <v>2.732822819070208</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9211656525764624</v>
+        <v>1.923364351753236</v>
       </c>
       <c r="C4">
-        <v>0.1527054039895575</v>
+        <v>0.447230203023139</v>
       </c>
       <c r="D4">
-        <v>0.5838469299353193</v>
+        <v>0.3286987739605536</v>
       </c>
       <c r="E4">
-        <v>0.217679123566743</v>
+        <v>0.1067070478568333</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002494547020349213</v>
+        <v>0.0008160508261910928</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09932231810599035</v>
+        <v>0.04052647103103624</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4548234435517671</v>
+        <v>0.5989033825566921</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>4.808889663886561</v>
+        <v>2.662358787177936</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8979920336477107</v>
+        <v>1.842909443031772</v>
       </c>
       <c r="C5">
-        <v>0.1471360221240445</v>
+        <v>0.4290795834359074</v>
       </c>
       <c r="D5">
-        <v>0.5832011884097739</v>
+        <v>0.32200771569822</v>
       </c>
       <c r="E5">
-        <v>0.2177228433125116</v>
+        <v>0.1052427282003023</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002495575355536721</v>
+        <v>0.0008175974026327042</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.09950214340054231</v>
+        <v>0.04048217171460067</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.448626223810983</v>
+        <v>0.5751203329540289</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>4.814477426378261</v>
+        <v>2.635482643094463</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8941474819982034</v>
+        <v>1.829561990186988</v>
       </c>
       <c r="C6">
-        <v>0.1462110188490158</v>
+        <v>0.4260668084930046</v>
       </c>
       <c r="D6">
-        <v>0.5830983578977822</v>
+        <v>0.3209045278031795</v>
       </c>
       <c r="E6">
-        <v>0.2177316909855094</v>
+        <v>0.1050023542831546</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.00249574799076503</v>
+        <v>0.0008178559304434674</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.09953266709584518</v>
+        <v>0.04047593753714196</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4476000382981766</v>
+        <v>0.5711777608291015</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>4.815454865675946</v>
+        <v>2.631127346875445</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9208528970079612</v>
+        <v>1.922278471998908</v>
       </c>
       <c r="C7">
-        <v>0.1526303077058344</v>
+        <v>0.4469853361853211</v>
       </c>
       <c r="D7">
-        <v>0.5838379266520803</v>
+        <v>0.3286080031133025</v>
       </c>
       <c r="E7">
-        <v>0.2176796067237099</v>
+        <v>0.1066871115817705</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002494560762687218</v>
+        <v>0.0008160715690515369</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09932469878670247</v>
+        <v>0.04052579780675458</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4547396742071186</v>
+        <v>0.5985821836878955</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>4.808961696458226</v>
+        <v>2.661989044639256</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.039187697688931</v>
+        <v>2.333507776997237</v>
       </c>
       <c r="C8">
-        <v>0.1809247515872698</v>
+        <v>0.5395251912770505</v>
       </c>
       <c r="D8">
-        <v>0.5877401846873909</v>
+        <v>0.3638126389425196</v>
       </c>
       <c r="E8">
-        <v>0.2176806359680938</v>
+        <v>0.1145461887691788</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002489594486411195</v>
+        <v>0.0008084422129551456</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09850350669833219</v>
+        <v>0.04091547195743672</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4866593832413955</v>
+        <v>0.7205910454408695</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>4.787530462396319</v>
+        <v>2.814655740340015</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.272958446809639</v>
+        <v>3.151117339154325</v>
       </c>
       <c r="C9">
-        <v>0.2362803560961879</v>
+        <v>0.7225562586663159</v>
       </c>
       <c r="D9">
-        <v>0.597688945145876</v>
+        <v>0.4379256960272642</v>
       </c>
       <c r="E9">
-        <v>0.2185130602574787</v>
+        <v>0.1317071639790122</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002480829105640048</v>
+        <v>0.0007943042410154255</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09724044319465364</v>
+        <v>0.04235879036015078</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5507330078283132</v>
+        <v>0.9650257695811533</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>4.771587689327788</v>
+        <v>3.182293829450174</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.445742302250551</v>
+        <v>3.762557271405456</v>
       </c>
       <c r="C10">
-        <v>0.2768650382289195</v>
+        <v>0.8587680424340363</v>
       </c>
       <c r="D10">
-        <v>0.6064013327122098</v>
+        <v>0.4962329799431586</v>
       </c>
       <c r="E10">
-        <v>0.2196320120476081</v>
+        <v>0.1456159202749667</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002474976313349098</v>
+        <v>0.0007843605051831012</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.0965245889488564</v>
+        <v>0.04390587598408047</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5987089246288946</v>
+        <v>1.149146575363048</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>4.775904517333288</v>
+        <v>3.50344456880859</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.524568878466027</v>
+        <v>4.044023932656614</v>
       </c>
       <c r="C11">
-        <v>0.2953086650025796</v>
+        <v>0.9213089250658584</v>
       </c>
       <c r="D11">
-        <v>0.610670274831989</v>
+        <v>0.5237841033038535</v>
       </c>
       <c r="E11">
-        <v>0.2202515015224087</v>
+        <v>0.1522837021055246</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002472439869744557</v>
+        <v>0.0007799188618123753</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09624508105306262</v>
+        <v>0.04473337481907436</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6207303526277457</v>
+        <v>1.234235123486329</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>4.781377375217346</v>
+        <v>3.662964110760697</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.554450490150714</v>
+        <v>4.151174814195315</v>
       </c>
       <c r="C12">
-        <v>0.3022899565873445</v>
+        <v>0.945092719132532</v>
       </c>
       <c r="D12">
-        <v>0.6123307957948327</v>
+        <v>0.5343820390122573</v>
       </c>
       <c r="E12">
-        <v>0.2205019880550303</v>
+        <v>0.1548629600584022</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002471497403758135</v>
+        <v>0.0007782473915226077</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.09614588080188824</v>
+        <v>0.04506619631403552</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6290975253055393</v>
+        <v>1.266678877551712</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>4.783956587479167</v>
+        <v>3.725517855528381</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.548013553945282</v>
+        <v>4.128071299957355</v>
       </c>
       <c r="C13">
-        <v>0.3007865437387522</v>
+        <v>0.939965660078883</v>
       </c>
       <c r="D13">
-        <v>0.6119712172665288</v>
+        <v>0.5320919554576165</v>
       </c>
       <c r="E13">
-        <v>0.2204473339530253</v>
+        <v>0.1543049643991132</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002471699580180404</v>
+        <v>0.0007786069280290481</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.09616694974567253</v>
+        <v>0.04499362299770127</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6272942564898187</v>
+        <v>1.259681105527193</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>4.783378535320196</v>
+        <v>3.711946608467883</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.527026626157181</v>
+        <v>4.052827428117496</v>
       </c>
       <c r="C14">
-        <v>0.2958830797426515</v>
+        <v>0.9232635003817791</v>
       </c>
       <c r="D14">
-        <v>0.6108060056679676</v>
+        <v>0.5246525914950269</v>
       </c>
       <c r="E14">
-        <v>0.2202717904755787</v>
+        <v>0.1524947782187631</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002472361971675305</v>
+        <v>0.0007797811466127916</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.09623678659573187</v>
+        <v>0.04476035591818217</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6214181621121355</v>
+        <v>1.236899640250527</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>4.781579399983116</v>
+        <v>3.668066094347182</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.514175630075897</v>
+        <v>4.006814807917692</v>
       </c>
       <c r="C15">
-        <v>0.2928791804480966</v>
+        <v>0.9130466507832296</v>
       </c>
       <c r="D15">
-        <v>0.6100980059771928</v>
+        <v>0.520117785884338</v>
       </c>
       <c r="E15">
-        <v>0.2201663359944561</v>
+        <v>0.1513932275727576</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002472770050703137</v>
+        <v>0.0007805017146017114</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.09628042910250301</v>
+        <v>0.04462006072052205</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.6178225433747855</v>
+        <v>1.222975298681874</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>4.780543436750065</v>
+        <v>3.641474434362976</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.440595281546621</v>
+        <v>3.744236902235286</v>
       </c>
       <c r="C16">
-        <v>0.275659309758737</v>
+        <v>0.8546939549857484</v>
       </c>
       <c r="D16">
-        <v>0.6061284987209774</v>
+        <v>0.4944545492821248</v>
       </c>
       <c r="E16">
-        <v>0.2195937510882331</v>
+        <v>0.1451874630959473</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002475144603982027</v>
+        <v>0.0007846523164470307</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.09654378460304258</v>
+        <v>0.0438544259111886</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5972737196321987</v>
+        <v>1.143615216072078</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>4.77561764945699</v>
+        <v>3.493307778038002</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.395513480550051</v>
+        <v>3.584064115612307</v>
       </c>
       <c r="C17">
-        <v>0.2650905519347475</v>
+        <v>0.8190565135823817</v>
       </c>
       <c r="D17">
-        <v>0.6037716251868517</v>
+        <v>0.4789857425841717</v>
       </c>
       <c r="E17">
-        <v>0.2192707929466629</v>
+        <v>0.1414712994206511</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002476633527306169</v>
+        <v>0.0007872186558349828</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.09671716785308604</v>
+        <v>0.04341756114240525</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5847179907484161</v>
+        <v>1.09529249845157</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>4.773496136606525</v>
+        <v>3.405998477785573</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.369604974067556</v>
+        <v>3.492243637515969</v>
       </c>
       <c r="C18">
-        <v>0.2590099502237706</v>
+        <v>0.7986119771193785</v>
       </c>
       <c r="D18">
-        <v>0.6024447805022817</v>
+        <v>0.4701840165276678</v>
       </c>
       <c r="E18">
-        <v>0.2190954333456041</v>
+        <v>0.1393655720059463</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.00247750178340499</v>
+        <v>0.000788702530300139</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.09682123548550692</v>
+        <v>0.04317782361983191</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.577514815448211</v>
+        <v>1.067621793707715</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>4.772606063448706</v>
+        <v>3.357030064225285</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.360836492529188</v>
+        <v>3.46120492659162</v>
       </c>
       <c r="C19">
-        <v>0.2569508730049961</v>
+        <v>0.7916984266796874</v>
       </c>
       <c r="D19">
-        <v>0.6020004739391425</v>
+        <v>0.4672198106647443</v>
       </c>
       <c r="E19">
-        <v>0.2190378449546593</v>
+        <v>0.138657901373584</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002477797801308732</v>
+        <v>0.0007892063187036059</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.09685721650579637</v>
+        <v>0.04309858554112722</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.575079135377905</v>
+        <v>1.058273236631173</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>4.772361340626333</v>
+        <v>3.340658571252447</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.40031031147339</v>
+        <v>3.601082431725558</v>
       </c>
       <c r="C20">
-        <v>0.2662157952518101</v>
+        <v>0.8228445527839767</v>
       </c>
       <c r="D20">
-        <v>0.6040195410525655</v>
+        <v>0.4806224175905243</v>
       </c>
       <c r="E20">
-        <v>0.2193040962062796</v>
+        <v>0.1418635723960513</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002476473801404307</v>
+        <v>0.0007869446679189487</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.09669826144813598</v>
+        <v>0.04346286066374816</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5860526512415305</v>
+        <v>1.10042356309954</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>4.773687788831268</v>
+        <v>3.415161875159981</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.533190141968475</v>
+        <v>4.074912280286242</v>
       </c>
       <c r="C21">
-        <v>0.2973234268498857</v>
+        <v>0.9281664387239346</v>
       </c>
       <c r="D21">
-        <v>0.6111470632253315</v>
+        <v>0.5268330908725716</v>
       </c>
       <c r="E21">
-        <v>0.2203229202376669</v>
+        <v>0.1530249545472344</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002472166922614139</v>
+        <v>0.0007794359764030229</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.0962160934513534</v>
+        <v>0.04482832962113648</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.62314335131326</v>
+        <v>1.243584804266064</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.782094079129934</v>
+        <v>3.680894757167437</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.620219173278542</v>
+        <v>4.387931616287688</v>
       </c>
       <c r="C22">
-        <v>0.3176369944344799</v>
+        <v>0.9975983148159742</v>
       </c>
       <c r="D22">
-        <v>0.6160615822973625</v>
+        <v>0.558005032339679</v>
       </c>
       <c r="E22">
-        <v>0.2210814605815159</v>
+        <v>0.1606390191249076</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002469457180993329</v>
+        <v>0.0007745890343756282</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.0959396953470133</v>
+        <v>0.04583510825721504</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6475481833985697</v>
+        <v>1.338463065647844</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.790542863828421</v>
+        <v>3.867198685450091</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.573753545803356</v>
+        <v>4.220529776635772</v>
       </c>
       <c r="C23">
-        <v>0.3067969014800269</v>
+        <v>0.9604800919183276</v>
       </c>
       <c r="D23">
-        <v>0.6134151566033381</v>
+        <v>0.5412730050685752</v>
       </c>
       <c r="E23">
-        <v>0.2206681285324947</v>
+        <v>0.1565441136230774</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002470893838834125</v>
+        <v>0.0007771708655706336</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.0960836677962682</v>
+        <v>0.04528670781257915</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6345079264209659</v>
+        <v>1.28769336595488</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.785762511782877</v>
+        <v>3.766531519529167</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.398141634182934</v>
+        <v>3.593387632181305</v>
       </c>
       <c r="C24">
-        <v>0.2657070866954996</v>
+        <v>0.8211318448395559</v>
       </c>
       <c r="D24">
-        <v>0.6039073705979376</v>
+        <v>0.4798821931110808</v>
       </c>
       <c r="E24">
-        <v>0.2192890076788103</v>
+        <v>0.141686130417888</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002476545975222285</v>
+        <v>0.0007870685114831921</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.09670679536819193</v>
+        <v>0.04344234529808944</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5854492036240089</v>
+        <v>1.098103466378021</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>4.773600116255153</v>
+        <v>3.411015297883722</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.209535015349729</v>
+        <v>2.928350957338239</v>
       </c>
       <c r="C25">
-        <v>0.2213197265586189</v>
+        <v>0.6727976371294346</v>
       </c>
       <c r="D25">
-        <v>0.5947513809599485</v>
+        <v>0.4172580441844076</v>
       </c>
       <c r="E25">
-        <v>0.2181988513590731</v>
+        <v>0.126854455517595</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002483096811976609</v>
+        <v>0.0007980465596906808</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.09754491457637826</v>
+        <v>0.04188851897112045</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.533241134061889</v>
+        <v>0.8982106979732691</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>4.773094908849657</v>
+        <v>3.074606793240861</v>
       </c>
     </row>
   </sheetData>
